--- a/AmbitionBox.xlsx
+++ b/AmbitionBox.xlsx
@@ -4,8 +4,6 @@
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="Overall Ratings" sheetId="1" r:id="rId1"/>
-    <sheet name="Employee Reviews" sheetId="2" r:id="rId2"/>
-    <sheet name="Year Trend Ratings" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -399,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -411,21 +409,6 @@
       <c r="B1" t="str">
         <v>Overall Rating</v>
       </c>
-      <c r="C1" t="str">
-        <v>Five Star Rating</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Four Star Rating</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Three Star Rating</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Two Star Rating</v>
-      </c>
-      <c r="G1" t="str">
-        <v>One Star Rating</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -434,375 +417,10 @@
       <c r="B2" t="str">
         <v>4.0</v>
       </c>
-      <c r="C2" t="str">
-        <v>2.6k</v>
-      </c>
-      <c r="D2" t="str">
-        <v>1.3k</v>
-      </c>
-      <c r="E2" t="str">
-        <v>677</v>
-      </c>
-      <c r="F2" t="str">
-        <v>256</v>
-      </c>
-      <c r="G2" t="str">
-        <v>522</v>
-      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G2"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Role</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Location</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Job Type</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Department</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Posted Date</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Overall Rating</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Likes</v>
-      </c>
-      <c r="H1" t="str">
-        <v>Dislikes</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Vocational Trainer</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Hosapete</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Full Time</v>
-      </c>
-      <c r="E2" t="str">
-        <v>17 Mar 2024</v>
-      </c>
-      <c r="F2" t="str">
-        <v>5.0</v>
-      </c>
-      <c r="G2" t="str">
-        <v>Since I have joined as a vocational trainer on 2022 I have a very good experience and I'm happy also about my work too am.As quess is providing employment for us without any experience it s a good matter</v>
-      </c>
-      <c r="H2" t="str">
-        <v>Salary is quite is less and no increments</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Vice President Operations</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Bangalore / Bengaluru</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Engineering Department</v>
-      </c>
-      <c r="E3" t="str">
-        <v>05 Mar 2024</v>
-      </c>
-      <c r="F3" t="str">
-        <v>4.0</v>
-      </c>
-      <c r="G3" t="str">
-        <v>It's an Indian company with a multinational culture. Gives the flexibility to work for an individual with very less</v>
-      </c>
-      <c r="H3" t="str">
-        <v>Management believes few of the initial people except that they don't believe the key people as well.</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Senior Stylist</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Hyderabad / Secunderabad</v>
-      </c>
-      <c r="D4" t="str">
-        <v>Full Time</v>
-      </c>
-      <c r="E4" t="str">
-        <v>26 Feb 2024</v>
-      </c>
-      <c r="F4" t="str">
-        <v>4.0</v>
-      </c>
-      <c r="G4" t="str">
-        <v>The first thing I like is we got salaries on time and that to on 1st day of the month</v>
-      </c>
-      <c r="H4" t="str">
-        <v>It should be more good when compared to other companies.</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Senior Accounts Executive</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Bangalore / Bengaluru (working remotely)</v>
-      </c>
-      <c r="D5" t="str">
-        <v>Telecom Department</v>
-      </c>
-      <c r="E5" t="str">
-        <v>20 Feb 2024</v>
-      </c>
-      <c r="F5" t="str">
-        <v>1.0</v>
-      </c>
-      <c r="G5" t="str">
-        <v>there is nothing to say about it</v>
-      </c>
-      <c r="H5" t="str">
-        <v>worst management, no recognition given to the employees, huge work pressure on single employee, kindly don't join here</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Data Center Engineer</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Hyderabad / Secunderabad</v>
-      </c>
-      <c r="D6" t="str">
-        <v>Full Time</v>
-      </c>
-      <c r="E6" t="str">
-        <v>10 Feb 2024</v>
-      </c>
-      <c r="F6" t="str">
-        <v>1.0</v>
-      </c>
-      <c r="G6" t="str">
-        <v>Didn't know till</v>
-      </c>
-      <c r="H6" t="str">
-        <v>Company for clients only, didn't care for employees and they do whatever client asks and forcing employees to do that</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Field Engineer</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Biswan</v>
-      </c>
-      <c r="D7" t="str">
-        <v>Procurement &amp; Purchase Department</v>
-      </c>
-      <c r="E7" t="str">
-        <v>05 Feb 2024</v>
-      </c>
-      <c r="F7" t="str">
-        <v>5.0</v>
-      </c>
-      <c r="G7" t="str">
-        <v>Skilled IT Engineer with [1years] of experience in designing, implementing, and managing IT systems. Adept at troubleshooting complex technical issues and implementing effective solutions. Seeking to contribute technical expertise to a dynamic IT team.</v>
-      </c>
-      <c r="H7" t="str">
-        <v>All best but tender only 1 year's</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Back Office Operations Executive</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Mumbai</v>
-      </c>
-      <c r="D8" t="str">
-        <v>Full Time</v>
-      </c>
-      <c r="E8" t="str">
-        <v>02 Feb 2024</v>
-      </c>
-      <c r="F8" t="str">
-        <v>4.0</v>
-      </c>
-      <c r="G8" t="str">
-        <v>I worked at wns on contracts basis of quess corp ltd, on contract you will get as fresher 13-18k but as you do overtime for months daily 1/2 hrs you will earn more than a exp person earns. So satisfied</v>
-      </c>
-      <c r="H8" t="str">
-        <v>Its good that they provide you knowledge about airlines industry but work life is not that balanced</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>Recruitment Consultant</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Guwahati</v>
-      </c>
-      <c r="D9" t="str">
-        <v>Finance Department</v>
-      </c>
-      <c r="E9" t="str">
-        <v>29 Jan 2024</v>
-      </c>
-      <c r="F9" t="str">
-        <v>5.0</v>
-      </c>
-      <c r="G9" t="str">
-        <v>I have learnt so many things  it was  my first job as a recruiter .I lost my job bcz the phonnpe  process was not have any recruitment in Ne .</v>
-      </c>
-      <c r="H9" t="str">
-        <v>They promised me that i will get an another job .But they never tried to call me .</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>Assistant Manager</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Noida</v>
-      </c>
-      <c r="D10" t="str">
-        <v>Full Time</v>
-      </c>
-      <c r="E10" t="str">
-        <v>27 Jan 2024</v>
-      </c>
-      <c r="F10" t="str">
-        <v>1.0</v>
-      </c>
-      <c r="G10" t="str">
-        <v>Worst company ever existed. No job security and it's like 10th fail students are your point of contact, HR, recruiter here. It's really frustating and noone will answer your queries here.</v>
-      </c>
-      <c r="H10" t="str">
-        <v>It's a sabzi Mandi not an organisation.</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>Telecalling Executive</v>
-      </c>
-      <c r="B11" t="str">
-        <v>Hyderabad / Secunderabad (working remotely)</v>
-      </c>
-      <c r="D11" t="str">
-        <v>IT Infrastructure Services Department</v>
-      </c>
-      <c r="E11" t="str">
-        <v>25 Jan 2024</v>
-      </c>
-      <c r="F11" t="str">
-        <v>5.0</v>
-      </c>
-      <c r="G11" t="str">
-        <v>I m very happy to one of the person in this company</v>
-      </c>
-      <c r="H11" t="str">
-        <v>Nothing to say</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H11"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>year</v>
-      </c>
-      <c r="B1" t="str">
-        <v>rating</v>
-      </c>
-      <c r="C1" t="str">
-        <v>description</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>2020</v>
-      </c>
-      <c r="B2" t="str">
-        <v>3.9</v>
-      </c>
-      <c r="C2" t="str">
-        <v>239 reviews of employees who worked in 2020</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>2021</v>
-      </c>
-      <c r="B3" t="str">
-        <v>4.1</v>
-      </c>
-      <c r="C3" t="str">
-        <v>479 reviews of employees who worked in 2021</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>2022</v>
-      </c>
-      <c r="B4" t="str">
-        <v>4.1</v>
-      </c>
-      <c r="C4" t="str">
-        <v>1.2k reviews of employees who worked in 2022</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>2023</v>
-      </c>
-      <c r="B5" t="str">
-        <v>4.0</v>
-      </c>
-      <c r="C5" t="str">
-        <v>1.7k reviews of employees who worked in 2023</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>2024</v>
-      </c>
-      <c r="B6" t="str">
-        <v>4.2</v>
-      </c>
-      <c r="C6" t="str">
-        <v>300 reviews of employees who worked in 2024</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B2"/>
   </ignoredErrors>
 </worksheet>
 </file>